--- a/SPPSApi/Doc/Template/FS1501.xlsx
+++ b/SPPSApi/Doc/Template/FS1501.xlsx
@@ -18,22 +18,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>供应商代码</t>
-  </si>
-  <si>
     <t>工区</t>
   </si>
   <si>
+    <t>仕入先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>受入</t>
-  </si>
-  <si>
-    <t>订单号</t>
-  </si>
-  <si>
-    <t>纳入便次</t>
-  </si>
-  <si>
-    <t>纳入补给时刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -393,10 +398,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>

--- a/SPPSApi/Doc/Template/FS1501.xlsx
+++ b/SPPSApi/Doc/Template/FS1501.xlsx
@@ -37,7 +37,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时刻</t>
+    <t>纳入补给时刻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
